--- a/agency.xlsx
+++ b/agency.xlsx
@@ -200,15 +200,15 @@
     <t>UII Bureau Investment Title Total FY2021 Spending ($M) Type CIO Rating # of Projects</t>
   </si>
   <si>
+    <t>422-000001328 National Science Foundation Mission Support Systems $50.306 Major IT 2 26</t>
+  </si>
+  <si>
     <t>422-000000004 National Science Foundation Data Management and Delivery $8.330 Major IT 3 5</t>
   </si>
   <si>
     <t>422-000001327 National Science Foundation iTRAK $8.671 Major IT 2 10</t>
   </si>
   <si>
-    <t>422-000001328 National Science Foundation Mission Support Systems $50.306 Major IT 2 26</t>
-  </si>
-  <si>
     <t>422-000001363 National Science Foundation Financial Services Support $2.612 Non-major IT -- --</t>
   </si>
   <si>
@@ -218,16 +218,16 @@
     <t>422-000000026 National Science Foundation Human Resources Support System $2.450 Non-major IT -- --</t>
   </si>
   <si>
+    <t>422-999991218 National Science Foundation USAJOBS $0.010 Funding Transfer -- --</t>
+  </si>
+  <si>
+    <t>422-999993400 National Science Foundation LOB: Hiring Assessment $0.000 Funding Transfer -- --</t>
+  </si>
+  <si>
     <t>422-999990160 National Science Foundation Grants.gov $0.323 Funding Transfer -- --</t>
   </si>
   <si>
     <t>422-999991200 National Science Foundation LOB: Human Resource Management $0.068 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>422-999993200 National Science Foundation LOB: Budget Formulation $0.120 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>422-999990060 National Science Foundation E-Rulemaking $0.017 Funding Transfer -- --</t>
   </si>
   <si>
     <t>Showing 1 to 10 of 22 entries</t>

--- a/agency.xlsx
+++ b/agency.xlsx
@@ -7,18 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Agency_2" sheetId="1" r:id="rId1"/>
-    <sheet name="individ_investment" sheetId="2" r:id="rId2"/>
+    <sheet name="agency" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Department of Agriculture</t>
   </si>
@@ -171,69 +167,6 @@
   </si>
   <si>
     <t>$141M</t>
-  </si>
-  <si>
-    <t>Search:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Show Filters</t>
-  </si>
-  <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>entries</t>
-  </si>
-  <si>
-    <t>UII Bureau Investment Title Total FY2021 Spending ($M) Type CIO Rating # of Projects</t>
-  </si>
-  <si>
-    <t>422-000001328 National Science Foundation Mission Support Systems $50.306 Major IT 2 26</t>
-  </si>
-  <si>
-    <t>422-000000004 National Science Foundation Data Management and Delivery $8.330 Major IT 3 5</t>
-  </si>
-  <si>
-    <t>422-000001327 National Science Foundation iTRAK $8.671 Major IT 2 10</t>
-  </si>
-  <si>
-    <t>422-000001363 National Science Foundation Financial Services Support $2.612 Non-major IT -- --</t>
-  </si>
-  <si>
-    <t>422-000000003 National Science Foundation Administrative Applications $2.953 Non-major IT -- --</t>
-  </si>
-  <si>
-    <t>422-000000026 National Science Foundation Human Resources Support System $2.450 Non-major IT -- --</t>
-  </si>
-  <si>
-    <t>422-999991218 National Science Foundation USAJOBS $0.010 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>422-999993400 National Science Foundation LOB: Hiring Assessment $0.000 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>422-999990160 National Science Foundation Grants.gov $0.323 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>422-999991200 National Science Foundation LOB: Human Resource Management $0.068 Funding Transfer -- --</t>
-  </si>
-  <si>
-    <t>Showing 1 to 10 of 22 entries</t>
-  </si>
-  <si>
-    <t>FirstPrevious123NextLast</t>
   </si>
 </sst>
 </file>
@@ -598,550 +531,424 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
